--- a/CH552Duino_pin.xlsx
+++ b/CH552Duino_pin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Documents/GitHub/CH552duino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089BA2F-5C38-714F-865D-3E0A2863807A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086A31CC-FE3A-0445-B84F-9672DB057E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="23340" windowHeight="16940" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
+    <workbookView xWindow="5220" yWindow="900" windowWidth="34760" windowHeight="27160" xr2:uid="{A4EAA408-4BB2-4748-9D1F-CB1A4CEA2614}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>T2/CAP1/TIN0</t>
     <phoneticPr fontId="2"/>
@@ -514,6 +514,983 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>109679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>233027</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5364505" cy="6776441"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98D569A-E173-9241-8293-2C8186585BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="20104711" y="938995"/>
+          <a:ext cx="6776441" cy="5364505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>321424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>230736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>461124</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDF6F89-A081-CF40-AC7A-C3AD06AC664B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23706357" y="484736"/>
+          <a:ext cx="139700" cy="365970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1079502</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>241299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1905002</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA70560-202F-984F-872D-1FE60B08A14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24464435" y="241299"/>
+          <a:ext cx="825500" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3111500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920764A-EEA1-E749-B909-44A74D3F2A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22123400" y="5016500"/>
+          <a:ext cx="1765300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T2EX/CAP2/TIN1/VBUS2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1354667</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>224366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>224366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3CD63C-5454-FB4D-81A3-3179A0614849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22191134" y="5304366"/>
+          <a:ext cx="1913466" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T2_/CAP1_/SCS/TIN2/UCC1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1350434</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2413000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A336D6-60AB-B54D-976B-CC424F071BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22186901" y="5592233"/>
+          <a:ext cx="1062566" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TXD1_/VBUS1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>389468</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0753973A-2769-184B-8429-471E6D5B19F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24240068" y="5024966"/>
+          <a:ext cx="766232" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XO/TXD_</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1164165</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>198968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98B5AF9-551E-7847-842C-98EC4EB68164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24290866" y="5278968"/>
+          <a:ext cx="723899" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XI/RXD_</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1164166</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7553F12-F532-ED4A-AD01-C9FFA504E26E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24400934" y="5524502"/>
+          <a:ext cx="613832" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RXD1_</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1164167</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56523713-B690-7240-876C-C5B03E8FBF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23918334" y="5753101"/>
+          <a:ext cx="1096433" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>T2/CAP1/TIN0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1231899</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8A9154-6EF1-B14E-BD00-BCBE2ADAF39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24316267" y="2950634"/>
+          <a:ext cx="766232" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TIN5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1248832</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951549D5-1D82-924D-8289-C82A9B42AEC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24333200" y="3204634"/>
+          <a:ext cx="766232" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TIN4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3098800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>927099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F521BBE-5301-2149-8717-4CE60D76FDCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23799800" y="3458635"/>
+          <a:ext cx="977899" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TIN3/UCC2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -814,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3565DC58-AC6A-6641-AD0E-E68DEF31AD00}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -837,25 +1814,56 @@
     <col min="13" max="13" width="12" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="30.140625" customWidth="1"/>
+    <col min="22" max="22" width="31.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:26">
       <c r="J1" t="s">
         <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>11</v>
       </c>
@@ -865,8 +1873,16 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>12</v>
       </c>
@@ -874,8 +1890,16 @@
         <v>3</v>
       </c>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>13</v>
       </c>
@@ -883,8 +1907,16 @@
         <v>4</v>
       </c>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>14</v>
       </c>
@@ -895,8 +1927,16 @@
         <v>6</v>
       </c>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>15</v>
       </c>
@@ -910,8 +1950,16 @@
         <v>8</v>
       </c>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>16</v>
       </c>
@@ -922,8 +1970,16 @@
         <v>11</v>
       </c>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>17</v>
       </c>
@@ -934,8 +1990,16 @@
         <v>13</v>
       </c>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>30</v>
       </c>
@@ -943,8 +2007,16 @@
         <v>14</v>
       </c>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>31</v>
       </c>
@@ -955,8 +2027,18 @@
         <v>25</v>
       </c>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="W11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>32</v>
       </c>
@@ -979,8 +2061,19 @@
         <v>13</v>
       </c>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="W12" s="5">
+        <v>17</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>33</v>
       </c>
@@ -997,8 +2090,19 @@
         <v>11</v>
       </c>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="W13" s="5">
+        <v>16</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>34</v>
       </c>
@@ -1024,8 +2128,23 @@
         <v>8</v>
       </c>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="5">
+        <v>15</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>35</v>
       </c>
@@ -1035,8 +2154,17 @@
       <c r="I15" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>36</v>
       </c>
@@ -1052,8 +2180,21 @@
       <c r="M16" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W16" s="5">
+        <v>35</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1069,29 +2210,73 @@
       <c r="M17" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W17" s="5">
+        <v>33</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="I18" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="L19" s="5">
         <v>37</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="W19" s="5">
+        <v>37</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="L20" s="5">
         <v>36</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="W20" s="5">
+        <v>36</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="F21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1107,8 +2292,20 @@
       <c r="O21" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="R21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="4">
+        <v>11</v>
+      </c>
+      <c r="W21" s="5">
+        <v>13</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="F22" s="10" t="s">
         <v>6</v>
       </c>
@@ -1124,8 +2321,20 @@
       <c r="O22" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="R22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="4">
+        <v>14</v>
+      </c>
+      <c r="W22" s="5">
+        <v>12</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="F23" s="9" t="s">
         <v>17</v>
       </c>
@@ -1147,30 +2356,99 @@
       <c r="O23" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="R23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="4">
+        <v>32</v>
+      </c>
+      <c r="W23" s="5">
+        <v>34</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="L24" s="5">
         <v>10</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="W24" s="5">
+        <v>10</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:26">
       <c r="L25" s="5">
         <v>30</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="W25" s="5">
+        <v>30</v>
+      </c>
+      <c r="X25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26">
       <c r="L26" s="5">
         <v>31</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="W26" s="5">
+        <v>31</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
